--- a/Data2/Result/daily_performance_0.1_rank_BL_LSTM.xlsx
+++ b/Data2/Result/daily_performance_0.1_rank_BL_LSTM.xlsx
@@ -466,17 +466,17 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.51</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="9">
@@ -486,142 +486,142 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.84</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.26</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.54</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.21</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.03</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.16</v>
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
